--- a/14 - Studium teplotní závislosti povrchového napětí/Data - povrchové napětí.xlsx
+++ b/14 - Studium teplotní závislosti povrchového napětí/Data - povrchové napětí.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jonas\Documents\Praktikum-I\14 - Studium teplotní závislosti povrchového napětí\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BBCDE85-B8C2-4EAA-85D2-9353E02DF2BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECF98657-A767-4062-9A57-E5C5E7DB6FAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{CCF7143A-C103-4D14-97E7-1F3B739378A5}"/>
   </bookViews>
@@ -80,9 +80,6 @@
     <t>d / m</t>
   </si>
   <si>
-    <t>Napětí 10^3</t>
-  </si>
-  <si>
     <t>Zapnutí topení</t>
   </si>
   <si>
@@ -92,9 +89,6 @@
     <t>Chyba napětí</t>
   </si>
   <si>
-    <t>Chyba napětí 10^3</t>
-  </si>
-  <si>
     <t>Celková chyba</t>
   </si>
   <si>
@@ -102,6 +96,12 @@
   </si>
   <si>
     <t>Směrodatná odchylka</t>
+  </si>
+  <si>
+    <t>Napětí 10^-3</t>
+  </si>
+  <si>
+    <t>Chyba napětí 10^-3</t>
   </si>
 </sst>
 </file>
@@ -138,8 +138,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normální" xfId="0" builtinId="0"/>
@@ -480,7 +481,7 @@
   <dimension ref="B2:L30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+      <selection activeCell="L15" sqref="L15:L30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -564,13 +565,13 @@
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="H7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.3">
@@ -589,15 +590,15 @@
         <f>D8*$H$3/2</f>
         <v>6.9312644908650009E-2</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="1">
         <f>E8*1000</f>
         <v>69.312644908650014</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="1">
         <f>(F8+F9+F10)/3</f>
         <v>69.100679633700011</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="1">
         <f>((H8-F8)^2+(H8-F9)^2+(H8-F10)^2)/6</f>
         <v>4.4929277784628525E-2</v>
       </c>
@@ -618,7 +619,7 @@
         <f t="shared" ref="E9:E10" si="2">D9*$H$3/2</f>
         <v>6.8676749083800018E-2</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="1">
         <f t="shared" ref="F9:F10" si="3">E9*1000</f>
         <v>68.676749083800019</v>
       </c>
@@ -639,19 +640,19 @@
         <f t="shared" si="2"/>
         <v>6.9312644908650009E-2</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="1">
         <f t="shared" si="3"/>
         <v>69.312644908650014</v>
       </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C14" t="s">
         <v>12</v>
@@ -666,16 +667,16 @@
         <v>10</v>
       </c>
       <c r="G14" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="I14" t="s">
+        <v>16</v>
+      </c>
+      <c r="J14" t="s">
+        <v>21</v>
+      </c>
+      <c r="L14" t="s">
         <v>17</v>
-      </c>
-      <c r="J14" t="s">
-        <v>18</v>
-      </c>
-      <c r="L14" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.3">
@@ -697,7 +698,7 @@
         <f>E15*$H$3/2</f>
         <v>6.9312644908650009E-2</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="1">
         <f>F15*1000</f>
         <v>69.312644908650014</v>
       </c>
@@ -705,11 +706,11 @@
         <f>F15*SQRT((1/C15^2)+(0.01/0.26)^2)</f>
         <v>2.740662595961567E-3</v>
       </c>
-      <c r="J15">
+      <c r="J15" s="1">
         <f>I15*1000</f>
         <v>2.7406625959615671</v>
       </c>
-      <c r="L15">
+      <c r="L15" s="1">
         <f>SQRT(J15^2+$I$8^2)</f>
         <v>2.741030847127599</v>
       </c>
@@ -722,30 +723,30 @@
         <v>106</v>
       </c>
       <c r="D16">
-        <f t="shared" ref="D16:D42" si="4">C16/1000</f>
+        <f t="shared" ref="D16:D30" si="4">C16/1000</f>
         <v>0.106</v>
       </c>
       <c r="E16">
-        <f t="shared" ref="E16:E41" si="5">D16*$J$3*0.5*9.81</f>
+        <f t="shared" ref="E16:E30" si="5">D16*$J$3*0.5*9.81</f>
         <v>518.49967257000003</v>
       </c>
       <c r="F16">
-        <f t="shared" ref="F16:F42" si="6">E16*$H$3/2</f>
+        <f t="shared" ref="F16:F30" si="6">E16*$H$3/2</f>
         <v>6.7404957434100007E-2</v>
       </c>
-      <c r="G16">
-        <f t="shared" ref="G16:G42" si="7">F16*1000</f>
+      <c r="G16" s="1">
+        <f t="shared" ref="G16:G30" si="7">F16*1000</f>
         <v>67.404957434100012</v>
       </c>
       <c r="I16">
-        <f t="shared" ref="I16:I32" si="8">F16*SQRT((1/C16^2)+(0.01/0.26)^2)</f>
+        <f t="shared" ref="I16:I30" si="8">F16*SQRT((1/C16^2)+(0.01/0.26)^2)</f>
         <v>2.6693465982224177E-3</v>
       </c>
-      <c r="J16">
-        <f t="shared" ref="J16:J32" si="9">I16*1000</f>
+      <c r="J16" s="1">
+        <f t="shared" ref="J16:J30" si="9">I16*1000</f>
         <v>2.6693465982224178</v>
       </c>
-      <c r="L16">
+      <c r="L16" s="1">
         <f t="shared" ref="L16:L30" si="10">SQRT(J16^2+$I$8^2)</f>
         <v>2.6697246864506163</v>
       </c>
@@ -769,7 +770,7 @@
         <f t="shared" si="6"/>
         <v>6.6769061609250002E-2</v>
       </c>
-      <c r="G17">
+      <c r="G17" s="1">
         <f t="shared" si="7"/>
         <v>66.769061609250002</v>
       </c>
@@ -777,11 +778,11 @@
         <f t="shared" si="8"/>
         <v>2.6455995937380325E-3</v>
       </c>
-      <c r="J17">
+      <c r="J17" s="1">
         <f t="shared" si="9"/>
         <v>2.6455995937380323</v>
       </c>
-      <c r="L17">
+      <c r="L17" s="1">
         <f t="shared" si="10"/>
         <v>2.6459810752137081</v>
       </c>
@@ -805,7 +806,7 @@
         <f t="shared" si="6"/>
         <v>6.5497269959550006E-2</v>
       </c>
-      <c r="G18">
+      <c r="G18" s="1">
         <f t="shared" si="7"/>
         <v>65.49726995955001</v>
       </c>
@@ -813,11 +814,11 @@
         <f t="shared" si="8"/>
         <v>2.598145133249069E-3</v>
       </c>
-      <c r="J18">
+      <c r="J18" s="1">
         <f t="shared" si="9"/>
         <v>2.5981451332490688</v>
       </c>
-      <c r="L18">
+      <c r="L18" s="1">
         <f t="shared" si="10"/>
         <v>2.5985335813546975</v>
       </c>
@@ -841,7 +842,7 @@
         <f t="shared" si="6"/>
         <v>6.4225478309850009E-2</v>
       </c>
-      <c r="G19">
+      <c r="G19" s="1">
         <f t="shared" si="7"/>
         <v>64.225478309850004</v>
       </c>
@@ -849,11 +850,11 @@
         <f t="shared" si="8"/>
         <v>2.5507458562799698E-3</v>
       </c>
-      <c r="J19">
+      <c r="J19" s="1">
         <f t="shared" si="9"/>
         <v>2.5507458562799696</v>
       </c>
-      <c r="L19">
+      <c r="L19" s="1">
         <f t="shared" si="10"/>
         <v>2.5511415216196225</v>
       </c>
@@ -877,7 +878,7 @@
         <f t="shared" si="6"/>
         <v>6.3589582485000004E-2</v>
       </c>
-      <c r="G20">
+      <c r="G20" s="1">
         <f t="shared" si="7"/>
         <v>63.589582485000001</v>
       </c>
@@ -885,11 +886,11 @@
         <f t="shared" si="8"/>
         <v>2.5270678821225751E-3</v>
       </c>
-      <c r="J20">
+      <c r="J20" s="1">
         <f t="shared" si="9"/>
         <v>2.5270678821225752</v>
       </c>
-      <c r="L20">
+      <c r="L20" s="1">
         <f t="shared" si="10"/>
         <v>2.5274672541613126</v>
       </c>
@@ -913,7 +914,7 @@
         <f t="shared" si="6"/>
         <v>6.2953686660150013E-2</v>
       </c>
-      <c r="G21">
+      <c r="G21" s="1">
         <f t="shared" si="7"/>
         <v>62.953686660150012</v>
       </c>
@@ -921,11 +922,11 @@
         <f t="shared" si="8"/>
         <v>2.5034048973543378E-3</v>
       </c>
-      <c r="J21">
+      <c r="J21" s="1">
         <f t="shared" si="9"/>
         <v>2.5034048973543377</v>
       </c>
-      <c r="L21">
+      <c r="L21" s="1">
         <f t="shared" si="10"/>
         <v>2.503808043780499</v>
       </c>
@@ -949,7 +950,7 @@
         <f t="shared" si="6"/>
         <v>6.2317790835300015E-2</v>
       </c>
-      <c r="G22">
+      <c r="G22" s="1">
         <f t="shared" si="7"/>
         <v>62.317790835300016</v>
       </c>
@@ -957,11 +958,11 @@
         <f t="shared" si="8"/>
         <v>2.4797573310822258E-3</v>
       </c>
-      <c r="J22">
+      <c r="J22" s="1">
         <f t="shared" si="9"/>
         <v>2.4797573310822258</v>
       </c>
-      <c r="L22">
+      <c r="L22" s="1">
         <f t="shared" si="10"/>
         <v>2.4801643213824143</v>
       </c>
@@ -985,7 +986,7 @@
         <f t="shared" si="6"/>
         <v>6.1681895010450009E-2</v>
       </c>
-      <c r="G23">
+      <c r="G23" s="1">
         <f t="shared" si="7"/>
         <v>61.681895010450006</v>
       </c>
@@ -993,11 +994,11 @@
         <f t="shared" si="8"/>
         <v>2.4561256286539102E-3</v>
       </c>
-      <c r="J23">
+      <c r="J23" s="1">
         <f t="shared" si="9"/>
         <v>2.4561256286539104</v>
       </c>
-      <c r="L23">
+      <c r="L23" s="1">
         <f t="shared" si="10"/>
         <v>2.4565365341742456</v>
       </c>
@@ -1021,7 +1022,7 @@
         <f t="shared" si="6"/>
         <v>6.1045999185600011E-2</v>
       </c>
-      <c r="G24">
+      <c r="G24" s="1">
         <f t="shared" si="7"/>
         <v>61.04599918560001</v>
       </c>
@@ -1029,11 +1030,11 @@
         <f t="shared" si="8"/>
         <v>2.4325102524185268E-3</v>
       </c>
-      <c r="J24">
+      <c r="J24" s="1">
         <f t="shared" si="9"/>
         <v>2.4325102524185267</v>
       </c>
-      <c r="L24">
+      <c r="L24" s="1">
         <f t="shared" si="10"/>
         <v>2.4329251464283672</v>
       </c>
@@ -1057,7 +1058,7 @@
         <f t="shared" si="6"/>
         <v>6.0410103360750013E-2</v>
       </c>
-      <c r="G25">
+      <c r="G25" s="1">
         <f t="shared" si="7"/>
         <v>60.410103360750014</v>
       </c>
@@ -1065,11 +1066,11 @@
         <f t="shared" si="8"/>
         <v>2.4089116825297026E-3</v>
       </c>
-      <c r="J25">
+      <c r="J25" s="1">
         <f t="shared" si="9"/>
         <v>2.4089116825297028</v>
       </c>
-      <c r="L25">
+      <c r="L25" s="1">
         <f t="shared" si="10"/>
         <v>2.4093306402879477</v>
       </c>
@@ -1093,7 +1094,7 @@
         <f t="shared" si="6"/>
         <v>5.9774207535900008E-2</v>
       </c>
-      <c r="G26">
+      <c r="G26" s="1">
         <f t="shared" si="7"/>
         <v>59.774207535900011</v>
       </c>
@@ -1101,11 +1102,11 @@
         <f t="shared" si="8"/>
         <v>2.3853304177935348E-3</v>
       </c>
-      <c r="J26">
+      <c r="J26" s="1">
         <f t="shared" si="9"/>
         <v>2.3853304177935346</v>
       </c>
-      <c r="L26">
+      <c r="L26" s="1">
         <f t="shared" si="10"/>
         <v>2.3857535166176169</v>
       </c>
@@ -1129,7 +1130,7 @@
         <f t="shared" si="6"/>
         <v>5.9774207535900008E-2</v>
       </c>
-      <c r="G27">
+      <c r="G27" s="1">
         <f t="shared" si="7"/>
         <v>59.774207535900011</v>
       </c>
@@ -1137,11 +1138,11 @@
         <f t="shared" si="8"/>
         <v>2.3853304177935348E-3</v>
       </c>
-      <c r="J27">
+      <c r="J27" s="1">
         <f t="shared" si="9"/>
         <v>2.3853304177935346</v>
       </c>
-      <c r="L27">
+      <c r="L27" s="1">
         <f t="shared" si="10"/>
         <v>2.3857535166176169</v>
       </c>
@@ -1165,7 +1166,7 @@
         <f t="shared" si="6"/>
         <v>5.913831171105001E-2</v>
       </c>
-      <c r="G28">
+      <c r="G28" s="1">
         <f t="shared" si="7"/>
         <v>59.138311711050008</v>
       </c>
@@ -1173,11 +1174,11 @@
         <f t="shared" si="8"/>
         <v>2.3617669765644183E-3</v>
       </c>
-      <c r="J28">
+      <c r="J28" s="1">
         <f t="shared" si="9"/>
         <v>2.3617669765644185</v>
       </c>
-      <c r="L28">
+      <c r="L28" s="1">
         <f t="shared" si="10"/>
         <v>2.3621942959021136</v>
       </c>
@@ -1201,7 +1202,7 @@
         <f t="shared" si="6"/>
         <v>5.8502415886200011E-2</v>
       </c>
-      <c r="G29">
+      <c r="G29" s="1">
         <f t="shared" si="7"/>
         <v>58.502415886200012</v>
       </c>
@@ -1209,11 +1210,11 @@
         <f t="shared" si="8"/>
         <v>2.3382218976918229E-3</v>
       </c>
-      <c r="J29">
+      <c r="J29" s="1">
         <f t="shared" si="9"/>
         <v>2.338221897691823</v>
       </c>
-      <c r="L29">
+      <c r="L29" s="1">
         <f t="shared" si="10"/>
         <v>2.3386535191959918</v>
       </c>
@@ -1237,7 +1238,7 @@
         <f t="shared" si="6"/>
         <v>5.8502415886200011E-2</v>
       </c>
-      <c r="G30">
+      <c r="G30" s="1">
         <f t="shared" si="7"/>
         <v>58.502415886200012</v>
       </c>
@@ -1245,11 +1246,11 @@
         <f t="shared" si="8"/>
         <v>2.3382218976918229E-3</v>
       </c>
-      <c r="J30">
+      <c r="J30" s="1">
         <f t="shared" si="9"/>
         <v>2.338221897691823</v>
       </c>
-      <c r="L30">
+      <c r="L30" s="1">
         <f t="shared" si="10"/>
         <v>2.3386535191959918</v>
       </c>
